--- a/scaffolds/MySQL OCP题库进展.xlsx
+++ b/scaffolds/MySQL OCP题库进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Global memory and thread memory(参考39题目)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>36题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,6 +107,38 @@
   </si>
   <si>
     <t>how to skip trans on replication with GTIDs（delay设置/恢复）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purge binary logs not used??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sha256_password plugin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>performance schema and sort_merge_passes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global memory and thread memory(参考39题目71题，分配/释放的时刻)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>super 权限问题 72题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql_secure_installation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80题是经典(lock和索引表结构问题)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,15 +244,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -235,6 +263,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -243,14 +280,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,7 +587,7 @@
   <dimension ref="A2:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -568,12 +599,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -593,11 +624,11 @@
       <c r="C4" s="4">
         <v>43324</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
@@ -605,7 +636,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" s="5"/>
-      <c r="D5" s="11"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
@@ -613,31 +644,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="C6" s="5"/>
-      <c r="D6" s="11"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="C7" s="5"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C8" s="5"/>
-      <c r="D8" s="11"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -645,112 +676,130 @@
     </row>
     <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="C9" s="5"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="3" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C10" s="5"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C11" s="5"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C12" s="5"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C13" s="5"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C14" s="5"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="3" t="s">
-        <v>23</v>
+      <c r="D15" s="8"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="C16" s="6"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="3" t="s">
-        <v>21</v>
+      <c r="D16" s="9"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="4">
+        <v>43326</v>
+      </c>
+      <c r="D17" s="7">
+        <v>89</v>
+      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C24" s="1"/>
@@ -831,11 +880,13 @@
       <c r="F36" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C4:C16"/>
     <mergeCell ref="D4:D16"/>
     <mergeCell ref="E9:E16"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="D17:D23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scaffolds/MySQL OCP题库进展.xlsx
+++ b/scaffolds/MySQL OCP题库进展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>35题(global/thread memory)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>source 命令的使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,6 +135,14 @@
   </si>
   <si>
     <t>86题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>information_schema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39题(global/thread memory)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,12 +176,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -244,12 +254,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -280,9 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -587,7 +598,7 @@
   <dimension ref="A2:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -599,12 +610,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -621,191 +632,193 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>43324</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>50</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
+      <c r="C5" s="6"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C8" s="5"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="C9" s="5"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="10"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C10" s="5"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="11"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C11" s="5"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="11"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C12" s="5"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="11"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C13" s="6"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C13" s="5"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C14" s="5"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="11"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C16" s="7"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="C16" s="6"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <v>43326</v>
       </c>
-      <c r="D17" s="7">
-        <v>89</v>
+      <c r="D17" s="8">
+        <v>88</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C25" s="1"/>

--- a/scaffolds/MySQL OCP题库进展.xlsx
+++ b/scaffolds/MySQL OCP题库进展.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,53 +114,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Global memory and thread memory(参考39题目71题，分配/释放的时刻)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>super 权限问题 72题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql_secure_installation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80题是经典(lock和索引表结构问题)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>information_schema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39题(global/thread memory)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>performance schema and sort_merge_passes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Global memory and thread memory(参考39题目71题，分配/释放的时刻)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>super 权限问题 72题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql_secure_installation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80题是经典(lock和索引表结构问题)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>86题目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>information_schema</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39题(global/thread memory)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>performance schema运用 event开头的表</t>
+  </si>
+  <si>
+    <t>explain 各个关键字段的理解</t>
+  </si>
+  <si>
+    <t>check/repaire/optimize/anaylze table</t>
+  </si>
+  <si>
+    <t>innodb_fast_shutdown(启动关闭的参数要看)</t>
+  </si>
+  <si>
+    <t>TABLE_NAME</t>
+  </si>
+  <si>
+    <t>APPLICATION_XML_DATA</t>
+  </si>
+  <si>
+    <t>SCRIPT_SESSION</t>
+  </si>
+  <si>
+    <t>BLOB SIZE(Mb)</t>
+  </si>
+  <si>
+    <t>TABLE SZIE(Mb)</t>
+  </si>
+  <si>
+    <t>INDEX SIZE(Mb)</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>I impdped this table, but it take long time not completed, so I interrupted.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -170,9 +205,17 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -254,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -263,6 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -293,10 +337,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -304,12 +349,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -351,7 +399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,7 +434,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -597,27 +645,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="29.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:6">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,43 +679,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="5">
+    <row r="4" spans="1:6">
+      <c r="C4" s="6">
         <v>43324</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <v>50</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C5" s="6"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="14" t="s">
-        <v>31</v>
+    <row r="5" spans="1:6">
+      <c r="C5" s="7"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="C6" s="6"/>
-      <c r="D6" s="9"/>
+    <row r="6" spans="1:6" ht="30">
+      <c r="C6" s="7"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="C7" s="6"/>
-      <c r="D7" s="9"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45">
+      <c r="C7" s="7"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
@@ -675,9 +723,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C8" s="6"/>
-      <c r="D8" s="9"/>
+    <row r="8" spans="1:6">
+      <c r="C8" s="7"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
@@ -685,78 +733,78 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="C9" s="6"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="11"/>
+    <row r="9" spans="1:6" ht="30">
+      <c r="C9" s="7"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C10" s="6"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="12"/>
+    <row r="10" spans="1:6">
+      <c r="C10" s="7"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C11" s="6"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="12"/>
+    <row r="11" spans="1:6">
+      <c r="C11" s="7"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C12" s="6"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="12"/>
+    <row r="12" spans="1:6">
+      <c r="C12" s="7"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C13" s="6"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="12"/>
+    <row r="13" spans="1:6">
+      <c r="C13" s="7"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C14" s="6"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="12"/>
+    <row r="14" spans="1:6">
+      <c r="C14" s="7"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="12"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="C16" s="7"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="13"/>
+    <row r="16" spans="1:6" ht="45">
+      <c r="C16" s="8"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C17" s="5">
+    <row r="17" spans="3:6">
+      <c r="C17" s="6">
         <v>43326</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="9">
         <v>88</v>
       </c>
       <c r="E17" s="1"/>
@@ -764,129 +812,137 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+    <row r="18" spans="3:6">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+    <row r="19" spans="3:6">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="F25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="F26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="F27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="F28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:6">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:6">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:6">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:6">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:6">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:6">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:6">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -913,7 +969,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -922,13 +978,73 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="K12:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="11" max="11" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="68.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="11:15">
+      <c r="K12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="11:15">
+      <c r="K13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="1">
+        <v>28736</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2271.0625</v>
+      </c>
+      <c r="N13" s="1">
+        <v>918</v>
+      </c>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="11:15">
+      <c r="K14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="1">
+        <v>154167</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1390.8359375</v>
+      </c>
+      <c r="N14" s="1">
+        <v>461</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>